--- a/analisis/resultados/argentina/renta_sobre_pbi.xlsx
+++ b/analisis/resultados/argentina/renta_sobre_pbi.xlsx
@@ -379,77 +379,41 @@
       <c r="A2">
         <v>1998</v>
       </c>
-      <c r="B2">
-        <v>0.01969743857379765</v>
-      </c>
-      <c r="C2">
-        <v>0.00960551207258502</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3">
         <v>1999</v>
       </c>
-      <c r="B3">
-        <v>0.03986563289233881</v>
-      </c>
-      <c r="C3">
-        <v>0.01881849886699485</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4">
         <v>2000</v>
       </c>
-      <c r="B4">
-        <v>0.06588228153183905</v>
-      </c>
-      <c r="C4">
-        <v>0.03199560413843541</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5">
         <v>2001</v>
       </c>
-      <c r="B5">
-        <v>0.04134753793478724</v>
-      </c>
-      <c r="C5">
-        <v>0.02016560503213586</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6">
         <v>2002</v>
       </c>
-      <c r="B6">
-        <v>0.0193548320373948</v>
-      </c>
-      <c r="C6">
-        <v>0.009818706652524836</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7">
         <v>2003</v>
       </c>
-      <c r="B7">
-        <v>0.0300769722847939</v>
-      </c>
-      <c r="C7">
-        <v>0.01598564073939386</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8">
         <v>2004</v>
       </c>
       <c r="B8">
-        <v>0.01293938178953579</v>
+        <v>0.0119483879330204</v>
       </c>
       <c r="C8">
-        <v>0.00669087294678176</v>
+        <v>0.006178436256000442</v>
       </c>
     </row>
     <row r="9">
@@ -457,10 +421,10 @@
         <v>2005</v>
       </c>
       <c r="B9">
-        <v>0.05690475439388326</v>
+        <v>0.05994600333447403</v>
       </c>
       <c r="C9">
-        <v>0.02922650529521253</v>
+        <v>0.03078850269267059</v>
       </c>
     </row>
     <row r="10">
@@ -468,10 +432,10 @@
         <v>2006</v>
       </c>
       <c r="B10">
-        <v>0.07602800705657771</v>
+        <v>0.07265768912969622</v>
       </c>
       <c r="C10">
-        <v>0.03867005621271636</v>
+        <v>0.03695581446506348</v>
       </c>
     </row>
     <row r="11">
@@ -479,10 +443,10 @@
         <v>2007</v>
       </c>
       <c r="B11">
-        <v>0.06914609170558515</v>
+        <v>0.06998573249919299</v>
       </c>
       <c r="C11">
-        <v>0.03496189264608618</v>
+        <v>0.03538643480838775</v>
       </c>
     </row>
     <row r="12">
@@ -490,10 +454,10 @@
         <v>2008</v>
       </c>
       <c r="B12">
-        <v>0.1568698748674783</v>
+        <v>0.1575806658838392</v>
       </c>
       <c r="C12">
-        <v>0.07939019673861313</v>
+        <v>0.07974992060960238</v>
       </c>
     </row>
     <row r="13">
@@ -501,10 +465,10 @@
         <v>2009</v>
       </c>
       <c r="B13">
-        <v>0.08261796295149482</v>
+        <v>0.08267664305694614</v>
       </c>
       <c r="C13">
-        <v>0.03613118370212548</v>
+        <v>0.03615684618028373</v>
       </c>
     </row>
     <row r="14">
@@ -512,10 +476,10 @@
         <v>2010</v>
       </c>
       <c r="B14">
-        <v>0.1047272407841949</v>
+        <v>0.1043080050109004</v>
       </c>
       <c r="C14">
-        <v>0.04874878055348402</v>
+        <v>0.04855363330660282</v>
       </c>
     </row>
     <row r="15">
@@ -523,10 +487,10 @@
         <v>2011</v>
       </c>
       <c r="B15">
-        <v>0.1255194159317385</v>
+        <v>0.1188627774244713</v>
       </c>
       <c r="C15">
-        <v>0.05783135502028484</v>
+        <v>0.05476439982536246</v>
       </c>
     </row>
     <row r="16">
@@ -534,10 +498,10 @@
         <v>2012</v>
       </c>
       <c r="B16">
-        <v>0.1416137527874225</v>
+        <v>0.1431014550441441</v>
       </c>
       <c r="C16">
-        <v>0.06112447554021662</v>
+        <v>0.06176660964380619</v>
       </c>
     </row>
     <row r="17">
@@ -545,10 +509,10 @@
         <v>2013</v>
       </c>
       <c r="B17">
-        <v>0.1222286025472304</v>
+        <v>0.1013837685817951</v>
       </c>
       <c r="C17">
-        <v>0.05088807813460256</v>
+        <v>0.04220963857602214</v>
       </c>
     </row>
     <row r="18">
@@ -556,10 +520,10 @@
         <v>2014</v>
       </c>
       <c r="B18">
-        <v>0.1029185248424047</v>
+        <v>0.08941736302906898</v>
       </c>
       <c r="C18">
-        <v>0.04519577661959568</v>
+        <v>0.03926685862980808</v>
       </c>
     </row>
     <row r="19">
@@ -567,10 +531,10 @@
         <v>2015</v>
       </c>
       <c r="B19">
-        <v>0.02868808913354905</v>
+        <v>0.01542499556350016</v>
       </c>
       <c r="C19">
-        <v>0.01234110815603628</v>
+        <v>0.006635560063598604</v>
       </c>
     </row>
     <row r="20">
@@ -578,10 +542,10 @@
         <v>2016</v>
       </c>
       <c r="B20">
-        <v>0.005870262890361949</v>
+        <v>-0.007419497864573406</v>
       </c>
       <c r="C20">
-        <v>0.002577237412835761</v>
+        <v>-0.003257402238735957</v>
       </c>
     </row>
     <row r="21">
@@ -589,10 +553,10 @@
         <v>2017</v>
       </c>
       <c r="B21">
-        <v>0.03066733919558708</v>
+        <v>0.01929857663663104</v>
       </c>
       <c r="C21">
-        <v>0.01335135498470467</v>
+        <v>0.008401842289997741</v>
       </c>
     </row>
     <row r="22">
@@ -600,10 +564,10 @@
         <v>2018</v>
       </c>
       <c r="B22">
-        <v>0.050182261138403</v>
+        <v>0.03306465832961947</v>
       </c>
       <c r="C22">
-        <v>0.0232311785635002</v>
+        <v>0.01530682285674621</v>
       </c>
     </row>
     <row r="23">

--- a/analisis/resultados/argentina/renta_sobre_pbi.xlsx
+++ b/analisis/resultados/argentina/renta_sobre_pbi.xlsx
@@ -379,41 +379,77 @@
       <c r="A2">
         <v>1998</v>
       </c>
+      <c r="B2">
+        <v>0.009990633367597335</v>
+      </c>
+      <c r="C2">
+        <v>0.004871960842303819</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
         <v>1999</v>
       </c>
+      <c r="B3">
+        <v>0.0169396038823721</v>
+      </c>
+      <c r="C3">
+        <v>0.00799630893428064</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
         <v>2000</v>
       </c>
+      <c r="B4">
+        <v>0.0286009585862577</v>
+      </c>
+      <c r="C4">
+        <v>0.01389000088686124</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
         <v>2001</v>
       </c>
+      <c r="B5">
+        <v>0.0158742471577314</v>
+      </c>
+      <c r="C5">
+        <v>0.007742028046995103</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
         <v>2002</v>
       </c>
+      <c r="B6">
+        <v>-0.01523173853828302</v>
+      </c>
+      <c r="C6">
+        <v>-0.007727061243745569</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
         <v>2003</v>
       </c>
+      <c r="B7">
+        <v>5.900023827991279e-005</v>
+      </c>
+      <c r="C7">
+        <v>3.135809694375898e-005</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
         <v>2004</v>
       </c>
       <c r="B8">
-        <v>0.0119483879330204</v>
+        <v>0.02091530605131297</v>
       </c>
       <c r="C8">
-        <v>0.006178436256000442</v>
+        <v>0.01081517322145661</v>
       </c>
     </row>
     <row r="9">
@@ -421,10 +457,10 @@
         <v>2005</v>
       </c>
       <c r="B9">
-        <v>0.05994600333447403</v>
+        <v>0.0513187319045086</v>
       </c>
       <c r="C9">
-        <v>0.03078850269267059</v>
+        <v>0.02635750221095647</v>
       </c>
     </row>
     <row r="10">
@@ -432,10 +468,10 @@
         <v>2006</v>
       </c>
       <c r="B10">
-        <v>0.07265768912969622</v>
+        <v>0.06574324644245021</v>
       </c>
       <c r="C10">
-        <v>0.03695581446506348</v>
+        <v>0.03343892775782109</v>
       </c>
     </row>
     <row r="11">
@@ -443,10 +479,10 @@
         <v>2007</v>
       </c>
       <c r="B11">
-        <v>0.06998573249919299</v>
+        <v>0.06989161493457444</v>
       </c>
       <c r="C11">
-        <v>0.03538643480838775</v>
+        <v>0.03533884675085421</v>
       </c>
     </row>
     <row r="12">
@@ -454,10 +490,10 @@
         <v>2008</v>
       </c>
       <c r="B12">
-        <v>0.1575806658838392</v>
+        <v>0.1600578399035218</v>
       </c>
       <c r="C12">
-        <v>0.07974992060960238</v>
+        <v>0.08100359237382432</v>
       </c>
     </row>
     <row r="13">
@@ -465,10 +501,10 @@
         <v>2009</v>
       </c>
       <c r="B13">
-        <v>0.08267664305694614</v>
+        <v>0.09111167441007032</v>
       </c>
       <c r="C13">
-        <v>0.03615684618028373</v>
+        <v>0.03984572516573932</v>
       </c>
     </row>
     <row r="14">
@@ -476,10 +512,10 @@
         <v>2010</v>
       </c>
       <c r="B14">
-        <v>0.1043080050109004</v>
+        <v>0.116062682203614</v>
       </c>
       <c r="C14">
-        <v>0.04855363330660282</v>
+        <v>0.05402523911473674</v>
       </c>
     </row>
     <row r="15">
@@ -487,10 +523,10 @@
         <v>2011</v>
       </c>
       <c r="B15">
-        <v>0.1188627774244713</v>
+        <v>0.1284670746552036</v>
       </c>
       <c r="C15">
-        <v>0.05476439982536246</v>
+        <v>0.05918944848216053</v>
       </c>
     </row>
     <row r="16">
@@ -498,10 +534,10 @@
         <v>2012</v>
       </c>
       <c r="B16">
-        <v>0.1431014550441441</v>
+        <v>0.1493599513095874</v>
       </c>
       <c r="C16">
-        <v>0.06176660964380619</v>
+        <v>0.06446795251740316</v>
       </c>
     </row>
     <row r="17">
@@ -509,10 +545,10 @@
         <v>2013</v>
       </c>
       <c r="B17">
-        <v>0.1013837685817951</v>
+        <v>0.1023046688651035</v>
       </c>
       <c r="C17">
-        <v>0.04220963857602214</v>
+        <v>0.04259304184329803</v>
       </c>
     </row>
     <row r="18">
@@ -520,10 +556,10 @@
         <v>2014</v>
       </c>
       <c r="B18">
-        <v>0.08941736302906898</v>
+        <v>0.09503219858379991</v>
       </c>
       <c r="C18">
-        <v>0.03926685862980808</v>
+        <v>0.04173256491423031</v>
       </c>
     </row>
     <row r="19">
@@ -531,10 +567,10 @@
         <v>2015</v>
       </c>
       <c r="B19">
-        <v>0.01542499556350016</v>
+        <v>0.01321584916741356</v>
       </c>
       <c r="C19">
-        <v>0.006635560063598604</v>
+        <v>0.005685224386666409</v>
       </c>
     </row>
     <row r="20">
@@ -542,10 +578,10 @@
         <v>2016</v>
       </c>
       <c r="B20">
-        <v>-0.007419497864573406</v>
+        <v>-0.02218241598321194</v>
       </c>
       <c r="C20">
-        <v>-0.003257402238735957</v>
+        <v>-0.009738806156855918</v>
       </c>
     </row>
     <row r="21">
@@ -553,10 +589,10 @@
         <v>2017</v>
       </c>
       <c r="B21">
-        <v>0.01929857663663104</v>
+        <v>0.02235913486482052</v>
       </c>
       <c r="C21">
-        <v>0.008401842289997741</v>
+        <v>0.009734289135004641</v>
       </c>
     </row>
     <row r="22">
@@ -564,10 +600,10 @@
         <v>2018</v>
       </c>
       <c r="B22">
-        <v>0.03306465832961947</v>
+        <v>0.04196129166117218</v>
       </c>
       <c r="C22">
-        <v>0.01530682285674621</v>
+        <v>0.01942539529351357</v>
       </c>
     </row>
     <row r="23">
@@ -881,10 +917,10 @@
         <v>1963</v>
       </c>
       <c r="B54">
-        <v>-0.00490116455846466</v>
+        <v>-0.004901212763098724</v>
       </c>
       <c r="C54">
-        <v>-0.003246633956799652</v>
+        <v>-0.003246665888557902</v>
       </c>
     </row>
     <row r="55">
@@ -892,10 +928,10 @@
         <v>1964</v>
       </c>
       <c r="B55">
-        <v>0.009387462039342754</v>
+        <v>0.009387308803493815</v>
       </c>
       <c r="C55">
-        <v>0.006279126316546143</v>
+        <v>0.006279023819487015</v>
       </c>
     </row>
     <row r="56">
@@ -903,10 +939,10 @@
         <v>1965</v>
       </c>
       <c r="B56">
-        <v>0.01311455921533785</v>
+        <v>0.0129795170975493</v>
       </c>
       <c r="C56">
-        <v>0.008075330112415598</v>
+        <v>0.007992177513665126</v>
       </c>
     </row>
     <row r="57">
@@ -914,10 +950,10 @@
         <v>1966</v>
       </c>
       <c r="B57">
-        <v>0.03760969598195157</v>
+        <v>0.03761076148538569</v>
       </c>
       <c r="C57">
-        <v>0.02060507650375207</v>
+        <v>0.02060566025693597</v>
       </c>
     </row>
     <row r="58">
@@ -925,10 +961,10 @@
         <v>1967</v>
       </c>
       <c r="B58">
-        <v>-0.007920382262086578</v>
+        <v>-0.007920198641727725</v>
       </c>
       <c r="C58">
-        <v>-0.004419210277982406</v>
+        <v>-0.004419107826238254</v>
       </c>
     </row>
     <row r="59">
@@ -936,10 +972,10 @@
         <v>1968</v>
       </c>
       <c r="B59">
-        <v>-0.0206275482122956</v>
+        <v>-0.02062552237906596</v>
       </c>
       <c r="C59">
-        <v>-0.01161731899188562</v>
+        <v>-0.01161617805401889</v>
       </c>
     </row>
     <row r="60">
@@ -947,10 +983,10 @@
         <v>1969</v>
       </c>
       <c r="B60">
-        <v>-0.006217628644225268</v>
+        <v>-0.0063765978523947</v>
       </c>
       <c r="C60">
-        <v>-0.00381464506326312</v>
+        <v>-0.003912175993438178</v>
       </c>
     </row>
     <row r="61">
@@ -958,10 +994,10 @@
         <v>1970</v>
       </c>
       <c r="B61">
-        <v>0.007098685213435086</v>
+        <v>0.007097576608135333</v>
       </c>
       <c r="C61">
-        <v>0.004025684052333426</v>
+        <v>0.004025055359196407</v>
       </c>
     </row>
     <row r="62">
@@ -969,10 +1005,10 @@
         <v>1971</v>
       </c>
       <c r="B62">
-        <v>0.01733566275856285</v>
+        <v>0.01734149166956163</v>
       </c>
       <c r="C62">
-        <v>0.009931188188884525</v>
+        <v>0.009934527433127527</v>
       </c>
     </row>
     <row r="63">
@@ -980,10 +1016,10 @@
         <v>1972</v>
       </c>
       <c r="B63">
-        <v>0.01699597030563181</v>
+        <v>0.01699483601883259</v>
       </c>
       <c r="C63">
-        <v>0.01074398153796469</v>
+        <v>0.01074326449997213</v>
       </c>
     </row>
     <row r="64">
@@ -991,10 +1027,10 @@
         <v>1973</v>
       </c>
       <c r="B64">
-        <v>0.03765059566153541</v>
+        <v>0.03765134207121663</v>
       </c>
       <c r="C64">
-        <v>0.0239199969330048</v>
+        <v>0.0239204711384449</v>
       </c>
     </row>
     <row r="65">
@@ -1002,10 +1038,10 @@
         <v>1974</v>
       </c>
       <c r="B65">
-        <v>0.08493733560625436</v>
+        <v>0.08493822413534784</v>
       </c>
       <c r="C65">
-        <v>0.05085811296677189</v>
+        <v>0.05085864499326751</v>
       </c>
     </row>
     <row r="66">
@@ -1013,10 +1049,10 @@
         <v>1975</v>
       </c>
       <c r="B66">
-        <v>0.08836640479725051</v>
+        <v>0.08836719139154742</v>
       </c>
       <c r="C66">
-        <v>0.05661803308537144</v>
+        <v>0.05661853707127002</v>
       </c>
     </row>
     <row r="67">
@@ -1024,10 +1060,10 @@
         <v>1976</v>
       </c>
       <c r="B67">
-        <v>0.05465745272872348</v>
+        <v>0.05465840093706187</v>
       </c>
       <c r="C67">
-        <v>0.04793278209204568</v>
+        <v>0.04793361363946315</v>
       </c>
     </row>
     <row r="68">
@@ -1035,10 +1071,10 @@
         <v>1977</v>
       </c>
       <c r="B68">
-        <v>0.05719474854028998</v>
+        <v>0.05719544102851242</v>
       </c>
       <c r="C68">
-        <v>0.04824392837165239</v>
+        <v>0.04824451248738074</v>
       </c>
     </row>
     <row r="69">
@@ -1046,10 +1082,10 @@
         <v>1978</v>
       </c>
       <c r="B69">
-        <v>0.06398088347662721</v>
+        <v>0.06398061523838239</v>
       </c>
       <c r="C69">
-        <v>0.04703390170372029</v>
+        <v>0.04703370451527033</v>
       </c>
     </row>
     <row r="70">
@@ -1057,10 +1093,10 @@
         <v>1979</v>
       </c>
       <c r="B70">
-        <v>0.1412150162049811</v>
+        <v>0.141214599277904</v>
       </c>
       <c r="C70">
-        <v>0.09154302793316269</v>
+        <v>0.09154275765902263</v>
       </c>
     </row>
     <row r="71">
@@ -1068,10 +1104,10 @@
         <v>1980</v>
       </c>
       <c r="B71">
-        <v>0.1652430786389297</v>
+        <v>0.1652441488932682</v>
       </c>
       <c r="C71">
-        <v>0.0966569126849023</v>
+        <v>0.0966575387170544</v>
       </c>
     </row>
     <row r="72">
@@ -1079,10 +1115,10 @@
         <v>1981</v>
       </c>
       <c r="B72">
-        <v>0.1531717343238858</v>
+        <v>0.1531734326065899</v>
       </c>
       <c r="C72">
-        <v>0.1007042434762078</v>
+        <v>0.1007053600286558</v>
       </c>
     </row>
     <row r="73">
@@ -1090,10 +1126,10 @@
         <v>1982</v>
       </c>
       <c r="B73">
-        <v>0.1034816339278332</v>
+        <v>0.1034819358691727</v>
       </c>
       <c r="C73">
-        <v>0.08867848284083625</v>
+        <v>0.08867874158916557</v>
       </c>
     </row>
     <row r="74">
@@ -1101,10 +1137,10 @@
         <v>1983</v>
       </c>
       <c r="B74">
-        <v>0.07314590436975259</v>
+        <v>0.07314611378719588</v>
       </c>
       <c r="C74">
-        <v>0.06042911422018651</v>
+        <v>0.06042928722933458</v>
       </c>
     </row>
     <row r="75">
@@ -1112,10 +1148,10 @@
         <v>1984</v>
       </c>
       <c r="B75">
-        <v>0.1075600132194063</v>
+        <v>0.1075605416680581</v>
       </c>
       <c r="C75">
-        <v>0.0624741104820221</v>
+        <v>0.06247441742099008</v>
       </c>
     </row>
     <row r="76">
@@ -1123,10 +1159,10 @@
         <v>1985</v>
       </c>
       <c r="B76">
-        <v>0.1110970540370867</v>
+        <v>0.1110972247952469</v>
       </c>
       <c r="C76">
-        <v>0.05861631692712807</v>
+        <v>0.05861640702145614</v>
       </c>
     </row>
     <row r="77">
@@ -1134,10 +1170,10 @@
         <v>1986</v>
       </c>
       <c r="B77">
-        <v>0.07049768278709045</v>
+        <v>0.07049759290623234</v>
       </c>
       <c r="C77">
-        <v>0.03379573141938645</v>
+        <v>0.0337956883315966</v>
       </c>
     </row>
     <row r="78">
@@ -1145,10 +1181,10 @@
         <v>1987</v>
       </c>
       <c r="B78">
-        <v>0.05597181480600154</v>
+        <v>0.05597201346912049</v>
       </c>
       <c r="C78">
-        <v>0.02930907189136686</v>
+        <v>0.02930917591928976</v>
       </c>
     </row>
     <row r="79">
@@ -1156,10 +1192,10 @@
         <v>1988</v>
       </c>
       <c r="B79">
-        <v>0.01715212223392481</v>
+        <v>0.0171520373095995</v>
       </c>
       <c r="C79">
-        <v>0.01140106525867514</v>
+        <v>0.01140100880923048</v>
       </c>
     </row>
     <row r="80">
@@ -1167,10 +1203,10 @@
         <v>1989</v>
       </c>
       <c r="B80">
-        <v>0.07880224659487739</v>
+        <v>0.07880279842802054</v>
       </c>
       <c r="C80">
-        <v>0.05340255726939454</v>
+        <v>0.05340293123463417</v>
       </c>
     </row>
     <row r="81">
@@ -1178,10 +1214,10 @@
         <v>1990</v>
       </c>
       <c r="B81">
-        <v>0.1092787565309399</v>
+        <v>0.1092788477922576</v>
       </c>
       <c r="C81">
-        <v>0.05498600898736616</v>
+        <v>0.05498605490750465</v>
       </c>
     </row>
     <row r="82">
@@ -1189,10 +1225,10 @@
         <v>1991</v>
       </c>
       <c r="B82">
-        <v>0.1096939024853556</v>
+        <v>0.1096926821680189</v>
       </c>
       <c r="C82">
-        <v>0.05536145107376057</v>
+        <v>0.05536083519140974</v>
       </c>
     </row>
     <row r="83">
@@ -1200,10 +1236,10 @@
         <v>1992</v>
       </c>
       <c r="B83">
-        <v>0.07789608161418613</v>
+        <v>0.07789626916676194</v>
       </c>
       <c r="C83">
-        <v>0.03459944482520393</v>
+        <v>0.03459952813125559</v>
       </c>
     </row>
     <row r="84">
@@ -1211,10 +1247,10 @@
         <v>1993</v>
       </c>
       <c r="B84">
-        <v>0.05205100996930267</v>
+        <v>0.0520423435993547</v>
       </c>
       <c r="C84">
-        <v>0.01839335165673722</v>
+        <v>0.01839028920722597</v>
       </c>
     </row>
     <row r="85">
@@ -1222,10 +1258,10 @@
         <v>1994</v>
       </c>
       <c r="B85">
-        <v>0.03642098529904814</v>
+        <v>0.03641018670097225</v>
       </c>
       <c r="C85">
-        <v>0.01512840083516856</v>
+        <v>0.01512391535739226</v>
       </c>
     </row>
     <row r="86">
@@ -1233,10 +1269,10 @@
         <v>1995</v>
       </c>
       <c r="B86">
-        <v>0.0465368118990789</v>
+        <v>0.04653681169069657</v>
       </c>
       <c r="C86">
-        <v>0.01938601463623986</v>
+        <v>0.01938601454943325</v>
       </c>
     </row>
     <row r="87">
@@ -1244,10 +1280,10 @@
         <v>1996</v>
       </c>
       <c r="B87">
-        <v>0.0437291528300675</v>
+        <v>0.04372915311954686</v>
       </c>
       <c r="C87">
-        <v>0.02035523725927014</v>
+        <v>0.02035523739401826</v>
       </c>
     </row>
     <row r="88">
@@ -1255,10 +1291,10 @@
         <v>1997</v>
       </c>
       <c r="B88">
-        <v>0.03286386006437828</v>
+        <v>0.03286385994041376</v>
       </c>
       <c r="C88">
-        <v>0.0161485199656993</v>
+        <v>0.01614851990478608</v>
       </c>
     </row>
     <row r="89">
@@ -1266,10 +1302,10 @@
         <v>1998</v>
       </c>
       <c r="B89">
-        <v>0.01883044223211534</v>
+        <v>0.01883044223656507</v>
       </c>
       <c r="C89">
-        <v>0.009182718834991444</v>
+        <v>0.009182718837161367</v>
       </c>
     </row>
     <row r="90">
@@ -1277,10 +1313,10 @@
         <v>1999</v>
       </c>
       <c r="B90">
-        <v>0.02862358017611458</v>
+        <v>0.02704993131650211</v>
       </c>
       <c r="C90">
-        <v>0.013511708507632</v>
+        <v>0.01276887045056065</v>
       </c>
     </row>
     <row r="91">
@@ -1288,10 +1324,10 @@
         <v>2000</v>
       </c>
       <c r="B91">
-        <v>0.05540893818235265</v>
+        <v>0.05375678758173594</v>
       </c>
       <c r="C91">
-        <v>0.02690924495316437</v>
+        <v>0.02610688117089517</v>
       </c>
     </row>
     <row r="92">
@@ -1299,10 +1335,10 @@
         <v>2001</v>
       </c>
       <c r="B92">
-        <v>0.04501749490288694</v>
+        <v>0.04282621701312624</v>
       </c>
       <c r="C92">
-        <v>0.02195547950592814</v>
+        <v>0.0208867715090878</v>
       </c>
     </row>
     <row r="93">
@@ -1310,10 +1346,10 @@
         <v>2002</v>
       </c>
       <c r="B93">
-        <v>0.04738130896426598</v>
+        <v>0.04769463717964934</v>
       </c>
       <c r="C93">
-        <v>0.02403653891875329</v>
+        <v>0.02419549032824443</v>
       </c>
     </row>
     <row r="94">
@@ -1321,10 +1357,10 @@
         <v>2003</v>
       </c>
       <c r="B94">
-        <v>0.03549031986714091</v>
+        <v>0.03520371409022449</v>
       </c>
       <c r="C94">
-        <v>0.01886278637857164</v>
+        <v>0.0187104579812769</v>
       </c>
     </row>
     <row r="95">
@@ -1332,10 +1368,10 @@
         <v>2004</v>
       </c>
       <c r="B95">
-        <v>0.04496648452167037</v>
+        <v>0.04438140761208084</v>
       </c>
       <c r="C95">
-        <v>0.02325188634910191</v>
+        <v>0.0229493467587387</v>
       </c>
     </row>
     <row r="96">
@@ -1343,10 +1379,10 @@
         <v>2005</v>
       </c>
       <c r="B96">
-        <v>0.071116371794414</v>
+        <v>0.06919930681393717</v>
       </c>
       <c r="C96">
-        <v>0.03652564779453932</v>
+        <v>0.03554103569314353</v>
       </c>
     </row>
     <row r="97">
@@ -1354,10 +1390,10 @@
         <v>2006</v>
       </c>
       <c r="B97">
-        <v>0.09007410444314198</v>
+        <v>0.08798484129787348</v>
       </c>
       <c r="C97">
-        <v>0.0458143099757214</v>
+        <v>0.04475164995872836</v>
       </c>
     </row>
     <row r="98">
@@ -1365,10 +1401,10 @@
         <v>2007</v>
       </c>
       <c r="B98">
-        <v>0.09220287924839087</v>
+        <v>0.09037406123221664</v>
       </c>
       <c r="C98">
-        <v>0.04661994751153678</v>
+        <v>0.04569525404624369</v>
       </c>
     </row>
     <row r="99">
@@ -1376,10 +1412,10 @@
         <v>2008</v>
       </c>
       <c r="B99">
-        <v>0.194522186343366</v>
+        <v>0.1926888178556288</v>
       </c>
       <c r="C99">
-        <v>0.09844563627574242</v>
+        <v>0.09751778773210845</v>
       </c>
     </row>
     <row r="100">
@@ -1387,10 +1423,10 @@
         <v>2009</v>
       </c>
       <c r="B100">
-        <v>0.1202717893012519</v>
+        <v>0.1213655162815073</v>
       </c>
       <c r="C100">
-        <v>0.052598272314922</v>
+        <v>0.05307659021373995</v>
       </c>
     </row>
     <row r="101">
@@ -1398,10 +1434,10 @@
         <v>2010</v>
       </c>
       <c r="B101">
-        <v>0.1377811032016967</v>
+        <v>0.1396652742196356</v>
       </c>
       <c r="C101">
-        <v>0.06413480116636572</v>
+        <v>0.06501185129001037</v>
       </c>
     </row>
     <row r="102">
@@ -1409,10 +1445,10 @@
         <v>2011</v>
       </c>
       <c r="B102">
-        <v>0.154459618028295</v>
+        <v>0.1569866918309726</v>
       </c>
       <c r="C102">
-        <v>0.0711651575191344</v>
+        <v>0.07232947222821964</v>
       </c>
     </row>
     <row r="103">
@@ -1420,10 +1456,10 @@
         <v>2012</v>
       </c>
       <c r="B103">
-        <v>0.1789652896646686</v>
+        <v>0.1815875866490965</v>
       </c>
       <c r="C103">
-        <v>0.07724644856405066</v>
+        <v>0.07837830563816162</v>
       </c>
     </row>
     <row r="104">
@@ -1431,10 +1467,10 @@
         <v>2013</v>
       </c>
       <c r="B104">
-        <v>0.1444832394955176</v>
+        <v>0.1465107452040416</v>
       </c>
       <c r="C104">
-        <v>0.06015346839744259</v>
+        <v>0.06099759053222571</v>
       </c>
     </row>
     <row r="105">
@@ -1442,10 +1478,10 @@
         <v>2014</v>
       </c>
       <c r="B105">
-        <v>0.1272069985270743</v>
+        <v>0.1288625255172258</v>
       </c>
       <c r="C105">
-        <v>0.0558618489594799</v>
+        <v>0.05658885926349632</v>
       </c>
     </row>
     <row r="106">
@@ -1453,10 +1489,10 @@
         <v>2015</v>
       </c>
       <c r="B106">
-        <v>0.04988710187971807</v>
+        <v>0.05002668700437171</v>
       </c>
       <c r="C106">
-        <v>0.02146054820949438</v>
+        <v>0.02152059525941483</v>
       </c>
     </row>
     <row r="107">
@@ -1464,10 +1500,10 @@
         <v>2016</v>
       </c>
       <c r="B107">
-        <v>0.019860453756475</v>
+        <v>0.0198697305366796</v>
       </c>
       <c r="C107">
-        <v>0.008719388792811958</v>
+        <v>0.008723461602745768</v>
       </c>
     </row>
     <row r="108">
@@ -1475,10 +1511,10 @@
         <v>2017</v>
       </c>
       <c r="B108">
-        <v>0.0305306273978112</v>
+        <v>0.03037512153385279</v>
       </c>
       <c r="C108">
-        <v>0.01329183603749305</v>
+        <v>0.01322413489202782</v>
       </c>
     </row>
     <row r="109">
@@ -1486,10 +1522,10 @@
         <v>2018</v>
       </c>
       <c r="B109">
-        <v>0.0284233063940974</v>
+        <v>0.02864378697744449</v>
       </c>
       <c r="C109">
-        <v>0.01315817364995218</v>
+        <v>0.01326024206387626</v>
       </c>
     </row>
     <row r="110">

--- a/analisis/resultados/argentina/renta_sobre_pbi.xlsx
+++ b/analisis/resultados/argentina/renta_sobre_pbi.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,10 +380,10 @@
         <v>1998</v>
       </c>
       <c r="B2">
-        <v>0.00995589318627212</v>
+        <v>0.01765449455060211</v>
       </c>
       <c r="C2">
-        <v>0.004855019693845713</v>
+        <v>0.00860926459579257</v>
       </c>
     </row>
     <row r="3">
@@ -391,10 +391,10 @@
         <v>1999</v>
       </c>
       <c r="B3">
-        <v>0.01655488214955442</v>
+        <v>0.02304916703296808</v>
       </c>
       <c r="C3">
-        <v>0.007814701746137159</v>
+        <v>0.01088031701055575</v>
       </c>
     </row>
     <row r="4">
@@ -402,10 +402,10 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>0.0286009585862577</v>
+        <v>0.04177064086469819</v>
       </c>
       <c r="C4">
-        <v>0.01389000088686124</v>
+        <v>0.0202858319208292</v>
       </c>
     </row>
     <row r="5">
@@ -413,207 +413,351 @@
         <v>2001</v>
       </c>
       <c r="B5">
-        <v>0.0158742471577314</v>
+        <v>0.03105534818247203</v>
       </c>
       <c r="C5">
-        <v>0.007742028046995103</v>
+        <v>0.01514600183863189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B6">
-        <v>-0.01523173853828302</v>
+        <v>0.03088050444735142</v>
       </c>
       <c r="C6">
-        <v>-0.007727061243745569</v>
+        <v>0.01506072881196833</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B7">
-        <v>5.900023827991279e-005</v>
+        <v>0.01700036049260459</v>
       </c>
       <c r="C7">
-        <v>3.135809694375898e-005</v>
+        <v>0.008624283194065118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B8">
-        <v>0.02091530605131297</v>
+        <v>0.01705558267174119</v>
       </c>
       <c r="C8">
-        <v>0.01081517322145661</v>
+        <v>0.008652297406568121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B9">
-        <v>0.0513187319045086</v>
+        <v>0.02464732289044107</v>
       </c>
       <c r="C9">
-        <v>0.02635750221095647</v>
+        <v>0.01309983083349207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B10">
-        <v>0.06574324644245021</v>
+        <v>0.02481915318002814</v>
       </c>
       <c r="C10">
-        <v>0.03343892775782109</v>
+        <v>0.01319115708972145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B11">
-        <v>0.06989161493457444</v>
+        <v>0.04175519104138919</v>
       </c>
       <c r="C11">
-        <v>0.03533884675085421</v>
+        <v>0.0215913466864755</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B12">
-        <v>0.1600578399035218</v>
+        <v>0.04206247384189608</v>
       </c>
       <c r="C12">
-        <v>0.08100359237382432</v>
+        <v>0.02175024069009673</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B13">
-        <v>0.09111167441007032</v>
+        <v>0.07141438879948278</v>
       </c>
       <c r="C13">
-        <v>0.03984572516573932</v>
+        <v>0.03667871049851687</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B14">
-        <v>0.116062682203614</v>
+        <v>0.07145197800366925</v>
       </c>
       <c r="C14">
-        <v>0.05402523911473674</v>
+        <v>0.03669801646138236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B15">
-        <v>0.1284670746552036</v>
+        <v>0.08344896089961341</v>
       </c>
       <c r="C15">
-        <v>0.05918944848216053</v>
+        <v>0.04244456922932892</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="B16">
-        <v>0.1493599513095874</v>
+        <v>0.08373715399541222</v>
       </c>
       <c r="C16">
-        <v>0.06446795251740316</v>
+        <v>0.04259115262203002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="B17">
-        <v>0.1023046688651035</v>
+        <v>0.08430482041274182</v>
       </c>
       <c r="C17">
-        <v>0.04259304184329803</v>
+        <v>0.04262650293190438</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="B18">
-        <v>0.09503219858379991</v>
+        <v>0.08470165314417698</v>
       </c>
       <c r="C18">
-        <v>0.04173256491423031</v>
+        <v>0.04282715090798902</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="B19">
-        <v>0.01321584916741356</v>
+        <v>0.172193226252312</v>
       </c>
       <c r="C19">
-        <v>0.005685224386666409</v>
+        <v>0.08714518399900682</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="B20">
-        <v>-0.02218241598321194</v>
+        <v>0.1727063788126813</v>
       </c>
       <c r="C20">
-        <v>-0.009738806156855918</v>
+        <v>0.08740488512236823</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="B21">
-        <v>0.02235913486482052</v>
+        <v>0.1041068073572681</v>
       </c>
       <c r="C21">
-        <v>0.009734289135004641</v>
+        <v>0.04552886620401946</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="B22">
-        <v>0.04196129166117218</v>
+        <v>0.1046804337975665</v>
       </c>
       <c r="C22">
-        <v>0.01942539529351357</v>
+        <v>0.04577972935230339</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2019</v>
+        <v>2010</v>
+      </c>
+      <c r="B23">
+        <v>0.1279509298381581</v>
+      </c>
+      <c r="C23">
+        <v>0.05955901973153042</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2020</v>
+        <v>2010</v>
+      </c>
+      <c r="B24">
+        <v>0.1281206089705064</v>
+      </c>
+      <c r="C24">
+        <v>0.05963800253223649</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>2011</v>
+      </c>
+      <c r="B25">
+        <v>0.1399080615736059</v>
+      </c>
+      <c r="C25">
+        <v>0.0644607268047141</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>2011</v>
+      </c>
+      <c r="B26">
+        <v>0.1397549709704236</v>
+      </c>
+      <c r="C26">
+        <v>0.06439019240207063</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>2012</v>
+      </c>
+      <c r="B27">
+        <v>0.1629011849790095</v>
+      </c>
+      <c r="C27">
+        <v>0.07031272952471411</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>2012</v>
+      </c>
+      <c r="B28">
+        <v>0.1623000029088483</v>
+      </c>
+      <c r="C28">
+        <v>0.07005324244793318</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>2013</v>
+      </c>
+      <c r="B29">
+        <v>0.1200507325766218</v>
+      </c>
+      <c r="C29">
+        <v>0.04998135405429974</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>2013</v>
+      </c>
+      <c r="B30">
+        <v>0.1181457300236252</v>
+      </c>
+      <c r="C30">
+        <v>0.04918823430374016</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>2014</v>
+      </c>
+      <c r="B31">
+        <v>0.1121826707978376</v>
+      </c>
+      <c r="C31">
+        <v>0.04926404588224025</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>2014</v>
+      </c>
+      <c r="B32">
+        <v>0.1086627605569151</v>
+      </c>
+      <c r="C32">
+        <v>0.04771830786069983</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>2015</v>
+      </c>
+      <c r="B33">
+        <v>0.02604033125670879</v>
+      </c>
+      <c r="C33">
+        <v>0.01120208958366055</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>2016</v>
+      </c>
+      <c r="B34">
+        <v>-0.01247550390540515</v>
+      </c>
+      <c r="C34">
+        <v>-0.005477154261997007</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>2017</v>
+      </c>
+      <c r="B35">
+        <v>0.02386056756701393</v>
+      </c>
+      <c r="C35">
+        <v>0.01038795396274794</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>2018</v>
+      </c>
+      <c r="B36">
+        <v>0.04196129166117218</v>
+      </c>
+      <c r="C36">
+        <v>0.01942539529351357</v>
       </c>
     </row>
   </sheetData>
@@ -1302,10 +1446,10 @@
         <v>1998</v>
       </c>
       <c r="B89">
-        <v>0.01877812266088795</v>
+        <v>0.01917489908140569</v>
       </c>
       <c r="C89">
-        <v>0.009157205046933457</v>
+        <v>0.009350694199501243</v>
       </c>
     </row>
     <row r="90">
@@ -1313,10 +1457,10 @@
         <v>1999</v>
       </c>
       <c r="B90">
-        <v>0.02653879632700257</v>
+        <v>0.02849490501326884</v>
       </c>
       <c r="C90">
-        <v>0.01252759011652569</v>
+        <v>0.01345096763308569</v>
       </c>
     </row>
     <row r="91">
@@ -1324,10 +1468,10 @@
         <v>2000</v>
       </c>
       <c r="B91">
-        <v>0.05375678758173594</v>
+        <v>0.04633405520449613</v>
       </c>
       <c r="C91">
-        <v>0.02610688117089517</v>
+        <v>0.02250204537520497</v>
       </c>
     </row>
     <row r="92">
@@ -1335,10 +1479,10 @@
         <v>2001</v>
       </c>
       <c r="B92">
-        <v>0.04282621701312624</v>
+        <v>0.0336147868540467</v>
       </c>
       <c r="C92">
-        <v>0.0208867715090878</v>
+        <v>0.01639426550638285</v>
       </c>
     </row>
     <row r="93">
@@ -1346,10 +1490,10 @@
         <v>2002</v>
       </c>
       <c r="B93">
-        <v>0.04769463717964934</v>
+        <v>0.02554804725602533</v>
       </c>
       <c r="C93">
-        <v>0.02419549032824443</v>
+        <v>0.01296052484811537</v>
       </c>
     </row>
     <row r="94">
@@ -1357,10 +1501,10 @@
         <v>2003</v>
       </c>
       <c r="B94">
-        <v>0.03520371409022449</v>
+        <v>0.03650522048047757</v>
       </c>
       <c r="C94">
-        <v>0.0187104579812769</v>
+        <v>0.01940219694281891</v>
       </c>
     </row>
     <row r="95">
@@ -1368,10 +1512,10 @@
         <v>2004</v>
       </c>
       <c r="B95">
-        <v>0.04438140761208084</v>
+        <v>0.05778549441431757</v>
       </c>
       <c r="C95">
-        <v>0.0229493467587387</v>
+        <v>0.02988051574502902</v>
       </c>
     </row>
     <row r="96">
@@ -1379,10 +1523,10 @@
         <v>2005</v>
       </c>
       <c r="B96">
-        <v>0.06919930681393717</v>
+        <v>0.08388447499942674</v>
       </c>
       <c r="C96">
-        <v>0.03554103569314353</v>
+        <v>0.04308339573503894</v>
       </c>
     </row>
     <row r="97">
@@ -1390,10 +1534,10 @@
         <v>2006</v>
       </c>
       <c r="B97">
-        <v>0.08798484129787348</v>
+        <v>0.1142173818900187</v>
       </c>
       <c r="C97">
-        <v>0.04475164995872836</v>
+        <v>0.05809428326681602</v>
       </c>
     </row>
     <row r="98">
@@ -1401,10 +1545,10 @@
         <v>2007</v>
       </c>
       <c r="B98">
-        <v>0.09037406123221664</v>
+        <v>0.110851883741452</v>
       </c>
       <c r="C98">
-        <v>0.04569525404624369</v>
+        <v>0.05604932344530512</v>
       </c>
     </row>
     <row r="99">
@@ -1412,10 +1556,10 @@
         <v>2008</v>
       </c>
       <c r="B99">
-        <v>0.1926888178556288</v>
+        <v>0.2102472334224802</v>
       </c>
       <c r="C99">
-        <v>0.09751778773210845</v>
+        <v>0.1064039175097236</v>
       </c>
     </row>
     <row r="100">
@@ -1423,10 +1567,10 @@
         <v>2009</v>
       </c>
       <c r="B100">
-        <v>0.1213655162815073</v>
+        <v>0.1418345778131168</v>
       </c>
       <c r="C100">
-        <v>0.05307659021373995</v>
+        <v>0.06202829267634967</v>
       </c>
     </row>
     <row r="101">
@@ -1434,10 +1578,10 @@
         <v>2010</v>
       </c>
       <c r="B101">
-        <v>0.1396652742196356</v>
+        <v>0.1553416108018514</v>
       </c>
       <c r="C101">
-        <v>0.06501185129001037</v>
+        <v>0.07230892401155507</v>
       </c>
     </row>
     <row r="102">
@@ -1445,10 +1589,10 @@
         <v>2011</v>
       </c>
       <c r="B102">
-        <v>0.1569866918309726</v>
+        <v>0.1679872634890108</v>
       </c>
       <c r="C102">
-        <v>0.07232947222821964</v>
+        <v>0.07739783524010668</v>
       </c>
     </row>
     <row r="103">
@@ -1456,10 +1600,10 @@
         <v>2012</v>
       </c>
       <c r="B103">
-        <v>0.1815875866490965</v>
+        <v>0.1919197830020315</v>
       </c>
       <c r="C103">
-        <v>0.07837830563816162</v>
+        <v>0.08283797195460843</v>
       </c>
     </row>
     <row r="104">
@@ -1467,10 +1611,10 @@
         <v>2013</v>
       </c>
       <c r="B104">
-        <v>0.1465107452040416</v>
+        <v>0.145324614135775</v>
       </c>
       <c r="C104">
-        <v>0.06099759053222571</v>
+        <v>0.06050376233471762</v>
       </c>
     </row>
     <row r="105">
@@ -1478,10 +1622,10 @@
         <v>2014</v>
       </c>
       <c r="B105">
-        <v>0.1288625255172258</v>
+        <v>0.1382790759194888</v>
       </c>
       <c r="C105">
-        <v>0.05658885926349632</v>
+        <v>0.06072405561575192</v>
       </c>
     </row>
     <row r="106">
@@ -1489,10 +1633,10 @@
         <v>2015</v>
       </c>
       <c r="B106">
-        <v>0.05002668700437171</v>
+        <v>0.04903898868567586</v>
       </c>
       <c r="C106">
-        <v>0.02152059525941483</v>
+        <v>0.02109570492531774</v>
       </c>
     </row>
     <row r="107">
@@ -1500,10 +1644,10 @@
         <v>2016</v>
       </c>
       <c r="B107">
-        <v>0.0198697305366796</v>
+        <v>0.01100118785254267</v>
       </c>
       <c r="C107">
-        <v>0.008723461602745768</v>
+        <v>0.004829881293009537</v>
       </c>
     </row>
     <row r="108">
@@ -1511,10 +1655,10 @@
         <v>2017</v>
       </c>
       <c r="B108">
-        <v>0.03037512153385279</v>
+        <v>0.05487073081006221</v>
       </c>
       <c r="C108">
-        <v>0.01322413489202782</v>
+        <v>0.02388856107284098</v>
       </c>
     </row>
     <row r="109">
@@ -1522,10 +1666,10 @@
         <v>2018</v>
       </c>
       <c r="B109">
-        <v>0.02864378697744449</v>
+        <v>0.05979267963830075</v>
       </c>
       <c r="C109">
-        <v>0.01326024206387626</v>
+        <v>0.02768018789819984</v>
       </c>
     </row>
     <row r="110">
